--- a/Summary Object interest spreadsheet.xlsx
+++ b/Summary Object interest spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rluo/Documents/LabFolder/Object-Interest-Bonsai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC200E39-73BC-A546-A7BC-2D4FA29B4F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A106A481-C554-6F43-B0F6-088E6E88EF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5200" yWindow="2240" windowWidth="28040" windowHeight="17440" xr2:uid="{2DE8584E-6517-B14F-BC3D-504387C86DD3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="17">
   <si>
     <t>Object Name</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>r1421</t>
+  </si>
+  <si>
+    <t>Newpoints</t>
+  </si>
+  <si>
+    <t>y=256</t>
+  </si>
+  <si>
+    <t>y=216</t>
   </si>
 </sst>
 </file>
@@ -463,7 +472,883 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Before</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> v After changing center point of Object 2</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y=256</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clear jar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gnome</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wide jar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Green Jar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flower</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>purple jar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$3:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>507.66666670000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>568.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>642.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>697.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>845.66666669999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0991-ED4C-86FD-0FBB98704BD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y=216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$3:$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clear jar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gnome</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wide jar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Green Jar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flower</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>purple jar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>543.33333330000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>802.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>697.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>845.66666669999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0991-ED4C-86FD-0FBB98704BD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1178749631"/>
+        <c:axId val="1639031039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1178749631"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1639031039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1639031039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178749631"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Average</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Time Spent around Six Objects after Chaing the Center</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.1541783083566166E-2"/>
+          <c:y val="0.15277676950998184"/>
+          <c:w val="0.89850429986574254"/>
+          <c:h val="0.78145819340640499"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y=216</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$3:$J$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Clear jar</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Gnome</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wide jar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Green Jar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Flower</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>purple jar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$3:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>543.33333330000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>802.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>641.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>697.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>845.66666669999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>914</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E83F-2047-A865-7EDC983017E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1400117024"/>
+        <c:axId val="1714671311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1400117024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1714671311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1714671311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1400117024"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1006,6 +1891,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1039,6 +2930,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F8475E-8CF1-E3FD-052A-E92BD08E654A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E6DCE2B-16ED-0054-91E6-267126E5E660}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1364,15 +3327,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A23AD23-F58A-5943-84FA-27647C25F584}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView tabSelected="1" zoomScale="38" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1382,27 +3345,45 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>417</v>
+        <v>805</v>
+      </c>
+      <c r="D2">
+        <v>753</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>805</v>
+        <v>301</v>
+      </c>
+      <c r="D3">
+        <v>441</v>
       </c>
       <c r="F3" t="s">
         <v>9</v>
@@ -1410,16 +3391,28 @@
       <c r="G3">
         <v>507.66666670000001</v>
       </c>
+      <c r="H3">
+        <v>543.33333330000005</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>543.33333330000005</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>606</v>
+        <v>417</v>
+      </c>
+      <c r="D4">
+        <v>436</v>
       </c>
       <c r="F4" t="s">
         <v>4</v>
@@ -1427,16 +3420,28 @@
       <c r="G4">
         <v>568.5</v>
       </c>
+      <c r="H4">
+        <v>802.75</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>802.75</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>591</v>
+        <v>910</v>
+      </c>
+      <c r="D5">
+        <v>910</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -1444,16 +3449,28 @@
       <c r="G5">
         <v>642.75</v>
       </c>
+      <c r="H5">
+        <v>641.5</v>
+      </c>
+      <c r="J5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>641.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>613</v>
+        <v>803</v>
+      </c>
+      <c r="D6">
+        <v>803</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -1461,16 +3478,28 @@
       <c r="G6">
         <v>697.25</v>
       </c>
+      <c r="H6">
+        <v>697.25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>697.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>910</v>
+        <v>824</v>
+      </c>
+      <c r="D7">
+        <v>824</v>
       </c>
       <c r="F7" t="s">
         <v>8</v>
@@ -1478,16 +3507,28 @@
       <c r="G7">
         <v>845.66666669999995</v>
       </c>
+      <c r="H7">
+        <v>845.66666669999995</v>
+      </c>
+      <c r="J7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>845.66666669999995</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
       <c r="C8">
-        <v>541</v>
+        <v>606</v>
+      </c>
+      <c r="D8">
+        <v>685</v>
       </c>
       <c r="F8" t="s">
         <v>6</v>
@@ -1495,74 +3536,101 @@
       <c r="G8">
         <v>914</v>
       </c>
+      <c r="H8">
+        <v>914</v>
+      </c>
+      <c r="J8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8">
+        <v>914</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>429</v>
+      </c>
+      <c r="D9">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="C9">
-        <v>301</v>
+      <c r="C10">
+        <v>335</v>
+      </c>
+      <c r="D10">
+        <v>963</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
-        <v>824</v>
+      <c r="C11">
+        <v>904</v>
+      </c>
+      <c r="D11">
+        <v>1249</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>613</v>
+      </c>
+      <c r="D12">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>696</v>
+      </c>
+      <c r="D13">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>803</v>
+      <c r="C14">
+        <v>184</v>
+      </c>
+      <c r="D14">
+        <v>184</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>1</v>
       </c>
@@ -1572,96 +3640,123 @@
       <c r="C15">
         <v>1296</v>
       </c>
+      <c r="D15">
+        <v>1296</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>184</v>
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>696</v>
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
       </c>
-      <c r="C18" t="s">
-        <v>12</v>
+      <c r="C18">
+        <v>541</v>
+      </c>
+      <c r="D18">
+        <v>541</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>1307</v>
+      </c>
+      <c r="D19">
+        <v>1307</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>970</v>
+        <v>838</v>
+      </c>
+      <c r="D20">
+        <v>838</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C21">
-        <v>838</v>
+        <v>970</v>
+      </c>
+      <c r="D21">
+        <v>970</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22">
-        <v>1307</v>
+        <v>591</v>
+      </c>
+      <c r="D22">
+        <v>612</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>588</v>
+        <v>512</v>
+      </c>
+      <c r="D23">
+        <v>484</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1671,21 +3766,27 @@
       <c r="C24">
         <v>880</v>
       </c>
+      <c r="D24">
+        <v>919</v>
+      </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>512</v>
+        <v>588</v>
+      </c>
+      <c r="D25">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D25">
-    <sortCondition ref="D3:D25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
+    <sortCondition ref="A2:A25"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
